--- a/biology/Mycologie/Atheliales/Atheliales.xlsx
+++ b/biology/Mycologie/Atheliales/Atheliales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ordre des Atheliales est un ordre de champignons basidiomycètes de la classe des Agaricomycetes. 
-Il ne comporte qu’une seule famille : la famille des Atheliaceae. Tant l'ordre que la famille ont été décrits par en 1981[1].
-Selon une estimation de 2008, la famille comprend 22 genres et 106 espèces[2].
+Il ne comporte qu’une seule famille : la famille des Atheliaceae. Tant l'ordre que la famille ont été décrits par en 1981.
+Selon une estimation de 2008, la famille comprend 22 genres et 106 espèces.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Famille des Atheliaceae
-Genre Amphinema
+          <t>Famille des Atheliaceae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Genre Amphinema
 Genre Athelia
 Genre Athelicium
 Genre Athelocystis
@@ -565,9 +582,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 mai 2013)[3] et NCBI  (26 mai 2013)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 mai 2013) et NCBI  (26 mai 2013) :
 famille des Atheliaceae</t>
         </is>
       </c>
